--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/summary_non_CCI.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/CCI/summary_non_CCI.xlsx
@@ -390,6 +390,12 @@
           <t>Q1</t>
         </is>
       </c>
+      <c r="B2">
+        <v>2.318502922491044</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -397,12 +403,24 @@
           <t>Q2</t>
         </is>
       </c>
+      <c r="B3">
+        <v>4.969576570353754</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
+      </c>
+      <c r="B4">
+        <v>9.190669857213626</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
